--- a/automation/stadtratsbeschluesse/SKZ_Beschluesse_Metadaten.xlsx
+++ b/automation/stadtratsbeschluesse/SKZ_Beschluesse_Metadaten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sszgua\Python\git\opendatazurich.github.io\automation\stadtratsbeschluesse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D24866-945D-4729-A05B-1D8175F02E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16CFA22-E7C7-4ED0-ABCF-334352EE3A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="-120" windowWidth="27420" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="-120" windowWidth="27420" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="14" r:id="rId1"/>
@@ -22,12 +22,12 @@
   <definedNames>
     <definedName name="kategorien" localSheetId="1">kategorien_werteliste!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="190">
   <si>
     <t>Erstmalige Veröffentlichung</t>
   </si>
@@ -911,9 +911,6 @@
   </si>
   <si>
     <t>Öffentliche Stadtratsbeschlüsse</t>
-  </si>
-  <si>
-    <t>Politik, Verwaltung</t>
   </si>
   <si>
     <t>Abteilung Protokoll, Stadtkanzlei Stadt Zürich, Allgemeine Verwaltung</t>
@@ -978,6 +975,69 @@
   </si>
   <si>
     <t>URL der Webseite, von der der Stadtratsbeschluss heruntergeladen werden kann.</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>arbeit-und-erwerb</t>
+  </si>
+  <si>
+    <t>basiskarten,</t>
+  </si>
+  <si>
+    <t>bauen-und-wohnen</t>
+  </si>
+  <si>
+    <t>bevolkerung</t>
+  </si>
+  <si>
+    <t>bildung</t>
+  </si>
+  <si>
+    <t>energie</t>
+  </si>
+  <si>
+    <t>finanzen</t>
+  </si>
+  <si>
+    <t>freizeit</t>
+  </si>
+  <si>
+    <t>gesundheit</t>
+  </si>
+  <si>
+    <t>kriminalitat</t>
+  </si>
+  <si>
+    <t>kultur</t>
+  </si>
+  <si>
+    <t>mobilitat</t>
+  </si>
+  <si>
+    <t>politik</t>
+  </si>
+  <si>
+    <t>preise</t>
+  </si>
+  <si>
+    <t>soziales</t>
+  </si>
+  <si>
+    <t>tourismus</t>
+  </si>
+  <si>
+    <t>umwelt</t>
+  </si>
+  <si>
+    <t>verwaltung</t>
+  </si>
+  <si>
+    <t>volkswirtschaft</t>
+  </si>
+  <si>
+    <t>politik, verwaltung</t>
   </si>
 </sst>
 </file>
@@ -987,13 +1047,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1399,22 +1465,19 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1432,132 +1495,138 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="9" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1820,7 +1889,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1887,7 +1956,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="35" t="s">
@@ -1905,7 +1974,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="34" t="s">
@@ -1957,7 +2026,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="35" t="s">
@@ -1975,7 +2044,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="35" t="s">
@@ -1993,7 +2062,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="34" t="s">
@@ -2027,7 +2096,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="34" t="s">
@@ -2045,7 +2114,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="34" t="s">
@@ -2097,7 +2166,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="34" t="s">
@@ -2177,10 +2246,10 @@
         <v>51</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="7"/>
@@ -2193,10 +2262,10 @@
         <v>51</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="7"/>
@@ -2209,10 +2278,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="7"/>
@@ -2292,7 +2361,7 @@
         <v>11</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="36" t="s">
@@ -2304,13 +2373,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="36" t="s">
@@ -2322,13 +2391,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="36" t="s">
@@ -2340,13 +2409,13 @@
         <v>30</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="36"/>
@@ -2356,13 +2425,13 @@
         <v>30</v>
       </c>
       <c r="B34" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="D34" s="19" t="s">
         <v>168</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>169</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="36"/>
@@ -2471,7 +2540,7 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B1" sqref="B1:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2493,122 +2562,182 @@
     <col min="15" max="16384" width="11" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B1" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B2" s="53" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B3" s="21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B4" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B5" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B6" s="53" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B7" s="53" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="53" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B9" s="53" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B10" s="53" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B11" s="53" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B12" s="53" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B13" s="53" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B14" s="53" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B15" s="53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B16" s="53" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B17" s="53" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B18" s="53" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B19" s="53" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" s="53" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="30" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="40" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="41">
         <v>45292</v>
       </c>
@@ -3291,18 +3420,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3322,6 +3451,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -3334,12 +3471,4 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>